--- a/sequences/13_localizer.xlsx
+++ b/sequences/13_localizer.xlsx
@@ -31,208 +31,358 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
   </si>
   <si>
     <t>flower/flower015.png</t>
   </si>
   <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
     <t>face/face011.png</t>
   </si>
   <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
   </si>
   <si>
     <t>dog/dog023.png</t>
@@ -241,574 +391,424 @@
     <t>car/car022.png</t>
   </si>
   <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
     <t>car/car023.png</t>
   </si>
   <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
   </si>
   <si>
     <t>flower/flower020.png</t>
   </si>
   <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
   </si>
   <si>
     <t>dog/dog044.png</t>
   </si>
   <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
     <t>flower/flower042.png</t>
   </si>
   <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
     <t>flower/flower032.png</t>
   </si>
   <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
   </si>
   <si>
     <t>flower/flower033.png</t>
   </si>
   <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
+    <t>face/face037.png</t>
   </si>
   <si>
     <t>dog/dog046.png</t>
   </si>
   <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
     <t>face/face039.png</t>
   </si>
   <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
   </si>
   <si>
     <t>face/face052.png</t>
   </si>
   <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
     <t>car/car057.png</t>
   </si>
   <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
     <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.62187477919172</v>
+        <v>1.383787154882865</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.421034167423994</v>
+        <v>1.432443879845363</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.479576141405444</v>
+        <v>1.68298838813075</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.488127219397645</v>
+        <v>1.245005272022074</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.482560347622478</v>
+        <v>1.605614581090214</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.451318148442231</v>
+        <v>1.642289121281535</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.745412434476234</v>
+        <v>1.510913567763014</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.483553439766039</v>
+        <v>1.393991789731391</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.468448077316705</v>
+        <v>1.367412461990742</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.344848018970888</v>
+        <v>1.557412894777249</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.428206124165997</v>
+        <v>1.861425241696914</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.203756195840518</v>
+        <v>1.47532094783674</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.297762992933902</v>
+        <v>1.229210848037515</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.471622882762245</v>
+        <v>1.643831932430674</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.463995661993484</v>
+        <v>1.643753379579074</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.61899535822567</v>
+        <v>1.430991373469434</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.567632900482842</v>
+        <v>1.501863846921062</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.530865854743722</v>
+        <v>1.480194885486825</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1.376240612111865</v>
+        <v>1.527852505820146</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.44952583996751</v>
+        <v>1.566399752086081</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.441098301940612</v>
+        <v>1.514468455293898</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.318675873403145</v>
+        <v>1.66883748087825</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.418852397340458</v>
+        <v>1.735544325183997</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.685493313351262</v>
+        <v>1.677064434161573</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.199943386735056</v>
+        <v>1.498194980118979</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.671018153498689</v>
+        <v>1.623351258233034</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.561675348895686</v>
+        <v>1.308718378181442</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.319178121339577</v>
+        <v>1.620028095148075</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1.70592477019032</v>
+        <v>1.531881428629027</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.416011416613574</v>
+        <v>1.427100956434355</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.605703859262233</v>
+        <v>1.539979368342626</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.627546025006799</v>
+        <v>1.51653671411644</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.380442028747647</v>
+        <v>1.170896535496293</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.478264901767052</v>
+        <v>1.545145681773162</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.44006452057694</v>
+        <v>1.77105755461282</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.80864295771622</v>
+        <v>1.621285839987169</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.359675548482268</v>
+        <v>1.524026253645978</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.231108739439686</v>
+        <v>1.483132918100638</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.666548800444447</v>
+        <v>1.324534414506922</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.444664998129281</v>
+        <v>1.587191600994465</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.847458163612313</v>
+        <v>1.636383383732581</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.951715079753809</v>
+        <v>1.459907318909035</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.578002116217839</v>
+        <v>1.697163107941161</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.434065424771238</v>
+        <v>1.430082250626478</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.702064866249996</v>
+        <v>1.53721025232464</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.135454610626982</v>
+        <v>1.430370466938273</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.566157386469431</v>
+        <v>1.544933048536805</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.238226171380692</v>
+        <v>1.688522013540938</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.237724661095647</v>
+        <v>1.360030267116157</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1.542108575108967</v>
+        <v>1.710361509893094</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.007417916886626</v>
+        <v>1.721331563720453</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.354279316619348</v>
+        <v>1.626614041920404</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.451653377411247</v>
+        <v>1.595203796121157</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.588204434229358</v>
+        <v>1.556897764671688</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.509506460138118</v>
+        <v>1.362701499622477</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.522230363829686</v>
+        <v>1.615673449010592</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.544321412459663</v>
+        <v>1.598666998815582</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.456861661781991</v>
+        <v>1.320903927494562</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.624608593466509</v>
+        <v>1.650661917758742</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.542433024553255</v>
+        <v>1.46810381454925</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.242128721997176</v>
+        <v>1.412169121148528</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.367342808070111</v>
+        <v>1.177407246435835</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.381081962157001</v>
+        <v>1.481262314990993</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.497155052439968</v>
+        <v>1.486555228409859</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.491840256760668</v>
+        <v>1.42243112547486</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.553938588666953</v>
+        <v>1.731241159292242</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.455896211513886</v>
+        <v>1.397556631306051</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.560997926128026</v>
+        <v>1.838947478578338</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.447553183905845</v>
+        <v>1.694858741309563</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.655242182885022</v>
+        <v>1.274865027730449</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.548163746447118</v>
+        <v>1.391215544250803</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.39131395857045</v>
+        <v>1.333156232459128</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.781865866505406</v>
+        <v>1.607486092757094</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.148537781011256</v>
+        <v>1.676557675903125</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.422226858671751</v>
+        <v>1.576331232794339</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.605373202892918</v>
+        <v>1.449783880057959</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.364039048444607</v>
+        <v>1.713297088755138</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.54172843787459</v>
+        <v>1.193904221805701</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.43483151424708</v>
+        <v>1.529725114068354</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.42176069710147</v>
+        <v>1.539311192849578</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.248560870244399</v>
+        <v>1.473088269091886</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.827411493233906</v>
+        <v>1.434126459319767</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.764893508225901</v>
+        <v>1.504042314280965</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.359476156667754</v>
+        <v>1.523367244898455</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.347932887247892</v>
+        <v>1.473109428494695</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.376025403166522</v>
+        <v>1.415784674284443</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.256223910183714</v>
+        <v>1.753530164538329</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.490321049719612</v>
+        <v>1.672827315900298</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.35713807592483</v>
+        <v>1.385440507968011</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.608937690106877</v>
+        <v>1.324321250199179</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.321513827011286</v>
+        <v>1.370389233481882</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.472070002635587</v>
+        <v>1.427130202611221</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.70645712254493</v>
+        <v>1.565958438865539</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.605998460403514</v>
+        <v>1.591740148115692</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.226966200131332</v>
+        <v>1.371251678161689</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.448995175867572</v>
+        <v>1.3966264034106</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.67060056257778</v>
+        <v>1.755681650082619</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.357333634286885</v>
+        <v>1.532318297439565</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.6010667154173</v>
+        <v>1.439934673103417</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.469496875693224</v>
+        <v>1.539087192419325</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.723242832979849</v>
+        <v>1.542794888695143</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.495887284497246</v>
+        <v>1.459839992811131</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.240728766683914</v>
+        <v>1.480737945077986</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.452993557968252</v>
+        <v>1.503754548834793</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.589473196321321</v>
+        <v>1.489505673931546</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.310195543294337</v>
+        <v>1.652538271259546</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.670074426934865</v>
+        <v>1.508171479861327</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.33334576842183</v>
+        <v>1.276635290901306</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.532273364056116</v>
+        <v>1.718738601922176</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.672455929261878</v>
+        <v>1.458006761779341</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.383155220305179</v>
+        <v>1.360575807435762</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.500573184260905</v>
+        <v>1.650656014283905</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1.4902539857322</v>
+        <v>1.829201115833819</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.532416851556212</v>
+        <v>1.628538417050945</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.48281342631093</v>
+        <v>1.225531267224998</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.650723149390673</v>
+        <v>1.570855577473725</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.496011693880569</v>
+        <v>1.589184201296997</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.750384791741162</v>
+        <v>1.602768074004913</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.502112495612714</v>
+        <v>1.4523075710344</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.476098589610324</v>
+        <v>1.475464992825333</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.438209421927809</v>
+        <v>1.489687637067469</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.604434238194699</v>
+        <v>1.411956194608597</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.566276497194856</v>
+        <v>1.424238029108342</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.415768412728706</v>
+        <v>1.675956412018078</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.538985684977473</v>
+        <v>1.28344944999109</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.29638534779938</v>
+        <v>1.412558689106441</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.90499370539386</v>
+        <v>1.588502429943363</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.394936283070927</v>
+        <v>1.484455624927796</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.423114335308445</v>
+        <v>1.70469037311502</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.515110686604592</v>
+        <v>1.452828641893696</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.468834440443703</v>
+        <v>1.66343388568365</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.505442135384305</v>
+        <v>1.421800397214814</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.543283830712993</v>
+        <v>1.440555384375651</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.574585926198982</v>
+        <v>1.397361611051958</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.511209866407454</v>
+        <v>1.71362034929978</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.366361707630303</v>
+        <v>1.541421268451569</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.711640661514148</v>
+        <v>1.966541130192011</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.598398232409125</v>
+        <v>1.601799387631987</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.355207504062279</v>
+        <v>1.401867821475518</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.856004345072081</v>
+        <v>1.386523400080822</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.225594800010798</v>
+        <v>1.731662131948073</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.603362233890685</v>
+        <v>1.389447026372918</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.581734275949632</v>
+        <v>1.526113468837432</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.396185351638342</v>
+        <v>1.66361393509286</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1.537928262627141</v>
+        <v>1.561738471358394</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.529627575141171</v>
+        <v>1.607751174347546</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.270118658655411</v>
+        <v>1.16997802318167</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.421962513849423</v>
+        <v>1.64394729577025</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.695493150370443</v>
+        <v>1.167842136733442</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.457457329484035</v>
+        <v>1.356370144047593</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.282127282871045</v>
+        <v>1.536389708040913</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.688373098384909</v>
+        <v>1.354560511619976</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.510154232805085</v>
+        <v>1.638029438213367</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.659929445966416</v>
+        <v>1.517118129577628</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.312704121689207</v>
+        <v>1.569329488417939</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.548266369699163</v>
+        <v>1.594508191390801</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.222323459153743</v>
+        <v>1.76825414928937</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.697054153071899</v>
+        <v>1.515885798388166</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.486764660340286</v>
+        <v>1.325403203096099</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.543850440183213</v>
+        <v>1.309824176948026</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.47210154780756</v>
+        <v>1.728238087440511</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.168331722006894</v>
+        <v>1.369060732532137</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.324588967605647</v>
+        <v>1.365235829706583</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.321373958938203</v>
+        <v>1.563286662017022</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.373279452937642</v>
+        <v>1.504810598157748</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.445645833235591</v>
+        <v>1.530500118438676</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.349526498643438</v>
+        <v>1.340209945268958</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.580279133791582</v>
+        <v>1.625219708828241</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.213592235357143</v>
+        <v>1.699516183294542</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.266799049327137</v>
+        <v>1.571412278340034</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.399245691291469</v>
+        <v>1.557745269941226</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.585379369448917</v>
+        <v>1.57326660509046</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.349812614036964</v>
+        <v>1.564757356772793</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.520625468408008</v>
+        <v>1.546949586907527</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.449782041913905</v>
+        <v>1.600489040022998</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.585681203737445</v>
+        <v>1.449229272737162</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.687268292653868</v>
+        <v>1.446122256719894</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.535898424040031</v>
+        <v>1.36354723378347</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.43637610049602</v>
+        <v>1.723869702977335</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.495180344373999</v>
+        <v>1.432656536733126</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.359194590763568</v>
+        <v>1.631864352689677</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.560947340254397</v>
+        <v>1.591707563579662</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.09540497849</v>
+        <v>1.387148334335862</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.521104278542835</v>
+        <v>1.572214822680592</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.415858501699833</v>
+        <v>1.530525697586488</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.38363011496457</v>
+        <v>1.51217365231873</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.609292300051179</v>
+        <v>1.291144652771691</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.469296998970899</v>
+        <v>1.610761881323298</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.630684741709451</v>
+        <v>1.427339137116506</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.50813741199061</v>
+        <v>1.374220241489303</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.345735383295917</v>
+        <v>1.494891608908632</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.440924871883584</v>
+        <v>1.526971775362277</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.516270626911421</v>
+        <v>1.525421940281427</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.223661318800452</v>
+        <v>1.431982704465955</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.5867585474303</v>
+        <v>1.556431655870515</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.557853972518884</v>
+        <v>1.764868605488189</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.297716404954249</v>
+        <v>1.253184923104685</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.214367843927197</v>
+        <v>1.32966222007612</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.451762913236193</v>
+        <v>1.295289607488561</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.563902550596836</v>
+        <v>1.392767675772766</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.479880558148502</v>
+        <v>1.568676016993142</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.613536194638779</v>
+        <v>1.450824431565065</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.40120495662366</v>
+        <v>1.550280783391637</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.617635845388574</v>
+        <v>1.404478575186089</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.553277547829934</v>
+        <v>1.637143968758949</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.600855489695625</v>
+        <v>1.541493389183737</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.394335805834273</v>
+        <v>1.355225321386842</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.507067166892231</v>
+        <v>1.5576712722362</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.751643637014493</v>
+        <v>1.646508705603262</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.376083109676163</v>
+        <v>1.547868066370326</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.345138988424549</v>
+        <v>1.181634814288749</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.37541438414396</v>
+        <v>1.632547647708116</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.308006749942258</v>
+        <v>1.248639407938121</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.395689917400365</v>
+        <v>1.456017631470432</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.405783127133598</v>
+        <v>1.645467247085841</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.487423461960314</v>
+        <v>1.672021850421739</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.575727944180384</v>
+        <v>1.572239463830523</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.64709596933992</v>
+        <v>1.857661449799862</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.503523435651005</v>
+        <v>1.626871923937406</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.462278933754048</v>
+        <v>1.54631847698198</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.529671762914771</v>
+        <v>1.486631180928281</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.353742877595234</v>
+        <v>1.417580368339121</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.547747918116464</v>
+        <v>1.671355395624257</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.475432286084954</v>
+        <v>1.591557586878434</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.472302103435026</v>
+        <v>1.636762652061442</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.54486955205837</v>
+        <v>1.346041585983574</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.480037829857473</v>
+        <v>1.359740263595325</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.531399802982795</v>
+        <v>1.720302247511907</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.594616992317699</v>
+        <v>1.427793517458304</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.448287733051262</v>
+        <v>1.186051963094602</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.538708695399967</v>
+        <v>1.532741260447292</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.429820661995508</v>
+        <v>1.173100192069275</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.589376847890186</v>
+        <v>1.596292585919437</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.496753722283483</v>
+        <v>1.338207556402954</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.609648849749727</v>
+        <v>1.525204365041215</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.629109263451857</v>
+        <v>1.601169717309497</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.649288661069129</v>
+        <v>1.483868829571306</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.355801118842944</v>
+        <v>1.443359116463661</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.473927039087402</v>
+        <v>1.376482286576417</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.375456660096413</v>
+        <v>1.36820896876267</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.580291911000113</v>
+        <v>1.21299759257595</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.54523559165707</v>
+        <v>1.821770920623585</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.625885468934496</v>
+        <v>1.22363126954703</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.645435271962744</v>
+        <v>1.490696630995512</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.63925952571338</v>
+        <v>1.536200604972001</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.745551858287938</v>
+        <v>1.364003912390428</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.540620456481368</v>
+        <v>1.43914111035914</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.418734969222039</v>
+        <v>1.351653016094724</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.38725170717475</v>
+        <v>1.256662663996355</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.621610635751542</v>
+        <v>1.198005491699988</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.316455329586031</v>
+        <v>1.420862705584127</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.151896981226831</v>
+        <v>1.360173262837255</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.404907121767959</v>
+        <v>1.536373712351536</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.483992278541524</v>
+        <v>1.649188066425357</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.625315551981901</v>
+        <v>1.586543283588463</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.497257072656944</v>
+        <v>1.351974046943392</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/13_localizer.xlsx
+++ b/sequences/13_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
+    <t>house</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.383787154882865</v>
+        <v>1.653740782189746</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.432443879845363</v>
+        <v>1.630938138241635</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.68298838813075</v>
+        <v>1.23227313785126</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.245005272022074</v>
+        <v>1.484004720884726</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.605614581090214</v>
+        <v>1.458094191657922</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.642289121281535</v>
+        <v>1.465299785740837</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.510913567763014</v>
+        <v>1.380825171503564</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.393991789731391</v>
+        <v>1.389691581026181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.367412461990742</v>
+        <v>1.466773023409345</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.557412894777249</v>
+        <v>1.529753715231114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.861425241696914</v>
+        <v>1.582783033678005</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.47532094783674</v>
+        <v>1.375284503424191</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.229210848037515</v>
+        <v>1.632919677636296</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.643831932430674</v>
+        <v>1.597054819094716</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.643753379579074</v>
+        <v>1.390937167782528</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.430991373469434</v>
+        <v>1.382730872380339</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.501863846921062</v>
+        <v>1.533669248906574</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.480194885486825</v>
+        <v>1.687385681428693</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1.527852505820146</v>
+        <v>1.441639854555219</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.566399752086081</v>
+        <v>1.41474206827378</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.514468455293898</v>
+        <v>1.642922485192376</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.66883748087825</v>
+        <v>1.570945739140069</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.735544325183997</v>
+        <v>1.317523510844285</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.677064434161573</v>
+        <v>1.145332431273195</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.498194980118979</v>
+        <v>1.596435078391656</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.623351258233034</v>
+        <v>1.399755215960848</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.308718378181442</v>
+        <v>1.641951496479524</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.620028095148075</v>
+        <v>1.304531386915465</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1.531881428629027</v>
+        <v>1.567572727083303</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.427100956434355</v>
+        <v>1.356815899002993</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.539979368342626</v>
+        <v>1.32646027414749</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.51653671411644</v>
+        <v>1.753954078402296</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.170896535496293</v>
+        <v>1.53303347302729</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.545145681773162</v>
+        <v>1.240067379430486</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1.77105755461282</v>
+        <v>1.436099433492569</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.621285839987169</v>
+        <v>1.741802021262611</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.524026253645978</v>
+        <v>1.330078942103222</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.483132918100638</v>
+        <v>1.350000709745973</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.324534414506922</v>
+        <v>1.436416054659983</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.587191600994465</v>
+        <v>1.463948463609584</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.636383383732581</v>
+        <v>1.535867599306481</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.459907318909035</v>
+        <v>1.141387159758473</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.697163107941161</v>
+        <v>1.386306003975811</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.430082250626478</v>
+        <v>1.743229747900062</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.53721025232464</v>
+        <v>1.531461982310573</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.430370466938273</v>
+        <v>1.533933594348628</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.544933048536805</v>
+        <v>1.493544156722586</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.688522013540938</v>
+        <v>1.252821620596285</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.360030267116157</v>
+        <v>1.540507268849913</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.710361509893094</v>
+        <v>1.495876238507692</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.721331563720453</v>
+        <v>1.778034974433327</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.626614041920404</v>
+        <v>1.519602752748621</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.595203796121157</v>
+        <v>1.713718340265706</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.556897764671688</v>
+        <v>1.438914592902125</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.362701499622477</v>
+        <v>1.458804093446579</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.615673449010592</v>
+        <v>1.532296381704678</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.598666998815582</v>
+        <v>1.535572636540624</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.320903927494562</v>
+        <v>1.498064190073878</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.650661917758742</v>
+        <v>1.669965183138033</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.46810381454925</v>
+        <v>1.59660251478042</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.412169121148528</v>
+        <v>1.720127953237091</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.177407246435835</v>
+        <v>1.191421992664886</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.481262314990993</v>
+        <v>1.745300465594527</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.486555228409859</v>
+        <v>1.618790567748682</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.42243112547486</v>
+        <v>1.890648343560772</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.731241159292242</v>
+        <v>1.466302486008153</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.397556631306051</v>
+        <v>1.511872364664289</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.838947478578338</v>
+        <v>1.370632610961227</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.694858741309563</v>
+        <v>1.602048320579037</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.274865027730449</v>
+        <v>1.311048016981152</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.391215544250803</v>
+        <v>1.608919033415608</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.333156232459128</v>
+        <v>1.358737909404612</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.607486092757094</v>
+        <v>1.525927762790888</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.676557675903125</v>
+        <v>1.455828692994794</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.576331232794339</v>
+        <v>1.448204226626642</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.449783880057959</v>
+        <v>1.484885813190249</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.713297088755138</v>
+        <v>1.479196558401928</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.193904221805701</v>
+        <v>1.365833091856653</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1.529725114068354</v>
+        <v>1.3449752882117</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.539311192849578</v>
+        <v>1.493134046821801</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.473088269091886</v>
+        <v>1.260911355205914</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.434126459319767</v>
+        <v>1.347008154654195</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.504042314280965</v>
+        <v>1.447548008831264</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.523367244898455</v>
+        <v>1.703146504146091</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.473109428494695</v>
+        <v>1.506906210330677</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.415784674284443</v>
+        <v>1.393848177899501</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.753530164538329</v>
+        <v>1.762827159942326</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.672827315900298</v>
+        <v>1.572172924024752</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.385440507968011</v>
+        <v>1.773921973556717</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.324321250199179</v>
+        <v>1.365516626816401</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.370389233481882</v>
+        <v>1.498982919391586</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.427130202611221</v>
+        <v>1.742719372743878</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.565958438865539</v>
+        <v>1.248674328064574</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.591740148115692</v>
+        <v>1.464925741810156</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.371251678161689</v>
+        <v>1.32697765557544</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.3966264034106</v>
+        <v>1.710220771503667</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.755681650082619</v>
+        <v>1.522054261452271</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.532318297439565</v>
+        <v>1.585175815122962</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.439934673103417</v>
+        <v>1.666573130919215</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.539087192419325</v>
+        <v>1.478436014004462</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.542794888695143</v>
+        <v>1.14758348387705</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.459839992811131</v>
+        <v>1.750043934506446</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.480737945077986</v>
+        <v>1.744664045362823</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.503754548834793</v>
+        <v>1.594106469529579</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.489505673931546</v>
+        <v>1.843910547111724</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.652538271259546</v>
+        <v>1.417323724230292</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.508171479861327</v>
+        <v>1.447348954603037</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.276635290901306</v>
+        <v>1.530017146940329</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.718738601922176</v>
+        <v>1.308158815325397</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.458006761779341</v>
+        <v>1.480321384997485</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.360575807435762</v>
+        <v>1.592599798935246</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.650656014283905</v>
+        <v>1.666242729150828</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1.829201115833819</v>
+        <v>1.538878783589432</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.628538417050945</v>
+        <v>1.779187497102959</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.225531267224998</v>
+        <v>1.584322889715641</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.570855577473725</v>
+        <v>1.472543590627755</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.589184201296997</v>
+        <v>1.524955272435404</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.602768074004913</v>
+        <v>1.522112384924492</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.4523075710344</v>
+        <v>1.615108524930472</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.475464992825333</v>
+        <v>1.505210976404938</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.489687637067469</v>
+        <v>1.362190608353962</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.411956194608597</v>
+        <v>1.64439447979694</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.424238029108342</v>
+        <v>1.670457921577102</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.675956412018078</v>
+        <v>1.627792204588699</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.28344944999109</v>
+        <v>1.638936216003184</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.412558689106441</v>
+        <v>1.340212616428929</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.588502429943363</v>
+        <v>1.664357818122086</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.484455624927796</v>
+        <v>1.544611421184524</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.70469037311502</v>
+        <v>1.581344059002775</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.452828641893696</v>
+        <v>1.593912876427414</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.66343388568365</v>
+        <v>1.554072746191849</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.421800397214814</v>
+        <v>1.654938946506878</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.440555384375651</v>
+        <v>1.69528462572331</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.397361611051958</v>
+        <v>1.5926271442161</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.71362034929978</v>
+        <v>1.764859701431515</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.541421268451569</v>
+        <v>1.521123420565981</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.966541130192011</v>
+        <v>1.504896296542557</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.601799387631987</v>
+        <v>1.442558966938532</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.401867821475518</v>
+        <v>1.551344685626302</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.386523400080822</v>
+        <v>1.595559336476364</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.731662131948073</v>
+        <v>1.456508099230621</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.389447026372918</v>
+        <v>1.637803054668277</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.526113468837432</v>
+        <v>1.476361172008035</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.66361393509286</v>
+        <v>1.573228706796694</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.561738471358394</v>
+        <v>1.676758671827116</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.607751174347546</v>
+        <v>1.548410487990998</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.16997802318167</v>
+        <v>1.581642783246189</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.64394729577025</v>
+        <v>1.573188925812129</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.167842136733442</v>
+        <v>1.318304224816959</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.356370144047593</v>
+        <v>1.337261751763088</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.536389708040913</v>
+        <v>1.456933148890795</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.354560511619976</v>
+        <v>1.403136633884899</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.638029438213367</v>
+        <v>1.542255846430654</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.517118129577628</v>
+        <v>1.333249041437879</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.569329488417939</v>
+        <v>1.779970178078736</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.594508191390801</v>
+        <v>1.506675277580021</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.76825414928937</v>
+        <v>1.638581208405306</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.515885798388166</v>
+        <v>1.339925626558671</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.325403203096099</v>
+        <v>1.223146708398744</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.309824176948026</v>
+        <v>1.507700194677386</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.728238087440511</v>
+        <v>1.533125690761433</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.369060732532137</v>
+        <v>1.594951820051794</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.365235829706583</v>
+        <v>1.530041342941401</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.563286662017022</v>
+        <v>1.533088108073295</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.504810598157748</v>
+        <v>1.474995377360315</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.530500118438676</v>
+        <v>1.575696049110495</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.340209945268958</v>
+        <v>1.389177036630836</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.625219708828241</v>
+        <v>1.666892550970417</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.699516183294542</v>
+        <v>1.503252568667612</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.571412278340034</v>
+        <v>1.621628001919431</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.557745269941226</v>
+        <v>1.592771930850349</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.57326660509046</v>
+        <v>1.379787296138578</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.564757356772793</v>
+        <v>1.388092733549145</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.546949586907527</v>
+        <v>1.203006030134703</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.600489040022998</v>
+        <v>1.486980749384639</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.449229272737162</v>
+        <v>1.306620836224595</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.446122256719894</v>
+        <v>1.588716507012442</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.36354723378347</v>
+        <v>1.466492519480721</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.723869702977335</v>
+        <v>1.563560929890415</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.432656536733126</v>
+        <v>1.471942661067135</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.631864352689677</v>
+        <v>1.267495569078184</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.591707563579662</v>
+        <v>1.5426437641519</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.387148334335862</v>
+        <v>1.611257058709431</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.572214822680592</v>
+        <v>1.45111420904677</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.530525697586488</v>
+        <v>1.452620905584451</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.51217365231873</v>
+        <v>1.4281519845486</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.291144652771691</v>
+        <v>1.4565275581658</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="F189">
-        <v>1.610761881323298</v>
+        <v>1.588102263146405</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.427339137116506</v>
+        <v>1.367720292806587</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.374220241489303</v>
+        <v>1.824557764507209</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.494891608908632</v>
+        <v>1.643012823147676</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.526971775362277</v>
+        <v>1.511172288580883</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.525421940281427</v>
+        <v>1.463811637316336</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.431982704465955</v>
+        <v>1.568836002213012</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.556431655870515</v>
+        <v>1.404534661064667</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.764868605488189</v>
+        <v>1.818865337771412</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.253184923104685</v>
+        <v>1.54908898713342</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.32966222007612</v>
+        <v>1.567124220818156</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.295289607488561</v>
+        <v>1.302394081536946</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.392767675772766</v>
+        <v>1.403381811270225</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.568676016993142</v>
+        <v>1.774317394202668</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.450824431565065</v>
+        <v>1.375371440313856</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.550280783391637</v>
+        <v>1.48470008522188</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.404478575186089</v>
+        <v>1.249608305011967</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.637143968758949</v>
+        <v>1.502838848129788</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.541493389183737</v>
+        <v>1.676731445798135</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.355225321386842</v>
+        <v>1.63966393972419</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.5576712722362</v>
+        <v>1.433108695052718</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.646508705603262</v>
+        <v>1.375923428209889</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.547868066370326</v>
+        <v>1.546729413134439</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.181634814288749</v>
+        <v>1.349671548051179</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.632547647708116</v>
+        <v>1.31893873877371</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.248639407938121</v>
+        <v>1.116903852317414</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.456017631470432</v>
+        <v>1.532386030166823</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.645467247085841</v>
+        <v>1.301631913966554</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.672021850421739</v>
+        <v>1.515618506191556</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.572239463830523</v>
+        <v>1.530226125991085</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.857661449799862</v>
+        <v>1.637643337457783</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.626871923937406</v>
+        <v>1.655265050100286</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.54631847698198</v>
+        <v>1.594937642168249</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.486631180928281</v>
+        <v>1.279161044718222</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.417580368339121</v>
+        <v>1.703536978097423</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.671355395624257</v>
+        <v>1.745549909365696</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.591557586878434</v>
+        <v>1.755230434828679</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.636762652061442</v>
+        <v>1.514067146035904</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.346041585983574</v>
+        <v>1.460479409036318</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.359740263595325</v>
+        <v>1.669331506382895</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.720302247511907</v>
+        <v>1.404064401282368</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.427793517458304</v>
+        <v>1.685291871055102</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.186051963094602</v>
+        <v>1.365255692350099</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.532741260447292</v>
+        <v>1.439612591305987</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.173100192069275</v>
+        <v>1.55076453681524</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.596292585919437</v>
+        <v>1.697005479579448</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.338207556402954</v>
+        <v>1.701228917604772</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.525204365041215</v>
+        <v>1.367064126684459</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.601169717309497</v>
+        <v>1.455300506892737</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.483868829571306</v>
+        <v>1.488298951854687</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.443359116463661</v>
+        <v>1.52396382425762</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.376482286576417</v>
+        <v>1.516206504174021</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.36820896876267</v>
+        <v>1.668258412063865</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.21299759257595</v>
+        <v>1.718928028594013</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.821770920623585</v>
+        <v>1.524230735194112</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.22363126954703</v>
+        <v>1.489859649662187</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.490696630995512</v>
+        <v>1.476948457783587</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.536200604972001</v>
+        <v>1.496252038136183</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.364003912390428</v>
+        <v>1.603071110498408</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.43914111035914</v>
+        <v>1.623673534463973</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.351653016094724</v>
+        <v>1.308141397941923</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.256662663996355</v>
+        <v>1.730055697365459</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.198005491699988</v>
+        <v>1.753858690931222</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.420862705584127</v>
+        <v>1.554881157138806</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.360173262837255</v>
+        <v>1.508936639963122</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.536373712351536</v>
+        <v>1.38307947284984</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.649188066425357</v>
+        <v>1.572454724877682</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.586543283588463</v>
+        <v>1.47164968080626</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.351974046943392</v>
+        <v>1.477260771288038</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/13_localizer.xlsx
+++ b/sequences/13_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
   </si>
   <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
   </si>
   <si>
     <t>house/house063.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
   </si>
   <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
     <t>dog/dog057.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
+    <t>house/house070.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
   </si>
   <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
     <t>house/house093.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
+    <t>face/face092.jpg</t>
   </si>
   <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
+    <t>flower/flower096.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
+    <t>flower/flower097.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.653740782189746</v>
+        <v>1.382354286403592</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.630938138241635</v>
+        <v>1.464062691597174</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.23227313785126</v>
+        <v>1.2310084110546</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.484004720884726</v>
+        <v>1.390540583965288</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.458094191657922</v>
+        <v>1.659141748725859</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.465299785740837</v>
+        <v>1.327655083238245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.380825171503564</v>
+        <v>1.503550622054291</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.389691581026181</v>
+        <v>1.406137317599568</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.466773023409345</v>
+        <v>1.50266957100797</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.529753715231114</v>
+        <v>1.57564143953</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.582783033678005</v>
+        <v>1.361854823665741</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.375284503424191</v>
+        <v>1.575981224915659</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.632919677636296</v>
+        <v>1.401720690272512</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.597054819094716</v>
+        <v>1.649235496219013</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.390937167782528</v>
+        <v>1.40725334332999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.382730872380339</v>
+        <v>1.733115774545248</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.533669248906574</v>
+        <v>1.39032841250046</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.687385681428693</v>
+        <v>1.686061599676875</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.441639854555219</v>
+        <v>1.552238823626635</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.41474206827378</v>
+        <v>1.483174444134496</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.642922485192376</v>
+        <v>1.411489934614383</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.570945739140069</v>
+        <v>1.569195717991008</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.317523510844285</v>
+        <v>1.649980353195833</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.145332431273195</v>
+        <v>1.508799910902475</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.596435078391656</v>
+        <v>1.662389341668692</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.399755215960848</v>
+        <v>1.13940002299834</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.641951496479524</v>
+        <v>1.621326532129866</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.304531386915465</v>
+        <v>1.733937656370774</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.567572727083303</v>
+        <v>1.434136433009398</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.356815899002993</v>
+        <v>1.688828024018085</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.32646027414749</v>
+        <v>1.67946268390597</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.753954078402296</v>
+        <v>1.425229161311185</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.53303347302729</v>
+        <v>1.597530178404167</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.240067379430486</v>
+        <v>1.525540879381649</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.436099433492569</v>
+        <v>1.156592181204612</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.741802021262611</v>
+        <v>1.594080889213085</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.330078942103222</v>
+        <v>1.484767191817839</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.350000709745973</v>
+        <v>1.484224228159716</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.436416054659983</v>
+        <v>1.643588576795404</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.463948463609584</v>
+        <v>1.32415379286676</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.535867599306481</v>
+        <v>1.137364020657999</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.141387159758473</v>
+        <v>1.340175613826072</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.386306003975811</v>
+        <v>1.567958876999863</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.743229747900062</v>
+        <v>1.804787738058508</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.531461982310573</v>
+        <v>1.544444202486017</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.533933594348628</v>
+        <v>1.530280418077699</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.493544156722586</v>
+        <v>1.33339757459608</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.252821620596285</v>
+        <v>1.618179699973277</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.540507268849913</v>
+        <v>1.462485670759927</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.495876238507692</v>
+        <v>1.427618189808668</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.778034974433327</v>
+        <v>1.339252463192622</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.519602752748621</v>
+        <v>1.564748207860674</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.713718340265706</v>
+        <v>1.586771296752939</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.438914592902125</v>
+        <v>1.500909226856021</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.458804093446579</v>
+        <v>1.381607126863404</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.532296381704678</v>
+        <v>1.514540644842963</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.535572636540624</v>
+        <v>1.677655059839726</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.498064190073878</v>
+        <v>1.422825073616707</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.669965183138033</v>
+        <v>1.465352163310269</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.59660251478042</v>
+        <v>1.375423394264935</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.720127953237091</v>
+        <v>1.394047183702857</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.191421992664886</v>
+        <v>1.501913126946861</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.745300465594527</v>
+        <v>1.524647190587553</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.618790567748682</v>
+        <v>1.491888914010663</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.890648343560772</v>
+        <v>1.56687166792433</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.466302486008153</v>
+        <v>1.520204762747985</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.511872364664289</v>
+        <v>1.594493320357602</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.370632610961227</v>
+        <v>1.463785521228003</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.602048320579037</v>
+        <v>1.280036603175758</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.311048016981152</v>
+        <v>1.468526228865546</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.608919033415608</v>
+        <v>1.572607926265242</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.358737909404612</v>
+        <v>1.387397396911181</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.525927762790888</v>
+        <v>1.77200030024425</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.455828692994794</v>
+        <v>1.517454823334184</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.448204226626642</v>
+        <v>1.316020721346632</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.484885813190249</v>
+        <v>1.313120107707284</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.479196558401928</v>
+        <v>1.512637576910407</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.365833091856653</v>
+        <v>1.620370214733806</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.3449752882117</v>
+        <v>1.562492962459174</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.493134046821801</v>
+        <v>1.434578234442845</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.260911355205914</v>
+        <v>1.462725123062779</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.347008154654195</v>
+        <v>1.635769907371387</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.447548008831264</v>
+        <v>1.229980941592912</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.703146504146091</v>
+        <v>1.712235923196458</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.506906210330677</v>
+        <v>1.585123581788275</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.393848177899501</v>
+        <v>1.755297821240166</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.762827159942326</v>
+        <v>1.484075896612761</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.572172924024752</v>
+        <v>1.627556473876271</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.773921973556717</v>
+        <v>1.451343709324145</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.365516626816401</v>
+        <v>1.423921393816026</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1.498982919391586</v>
+        <v>1.400822461887</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.742719372743878</v>
+        <v>1.619794781639986</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.248674328064574</v>
+        <v>1.425010779328066</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.464925741810156</v>
+        <v>1.362522073274465</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.32697765557544</v>
+        <v>1.499900721370743</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.710220771503667</v>
+        <v>1.336665507261516</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.522054261452271</v>
+        <v>1.606480755356967</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.585175815122962</v>
+        <v>1.522400430918551</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.666573130919215</v>
+        <v>1.529325951460532</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.478436014004462</v>
+        <v>1.607563103758336</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.14758348387705</v>
+        <v>1.473390751422701</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.750043934506446</v>
+        <v>1.531811480275812</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.744664045362823</v>
+        <v>1.510725871977625</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.594106469529579</v>
+        <v>1.250345538603853</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.843910547111724</v>
+        <v>1.386501028132884</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.417323724230292</v>
+        <v>1.437571581364243</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.447348954603037</v>
+        <v>1.386257245016116</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.530017146940329</v>
+        <v>1.355505799428867</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.308158815325397</v>
+        <v>1.522282003988797</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.480321384997485</v>
+        <v>1.346518238712838</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.592599798935246</v>
+        <v>1.489274679566384</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.666242729150828</v>
+        <v>1.586750150767286</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.538878783589432</v>
+        <v>1.526807887096964</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.779187497102959</v>
+        <v>1.67982142963491</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.584322889715641</v>
+        <v>1.799161133829222</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.472543590627755</v>
+        <v>1.663063287634232</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.524955272435404</v>
+        <v>1.576039994504798</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.522112384924492</v>
+        <v>1.5361107177366</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.615108524930472</v>
+        <v>1.496544872224131</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.505210976404938</v>
+        <v>1.79467183393238</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.362190608353962</v>
+        <v>1.5675448135432</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.64439447979694</v>
+        <v>1.802363304225272</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.670457921577102</v>
+        <v>1.153587738295418</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.627792204588699</v>
+        <v>1.38037231467034</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.638936216003184</v>
+        <v>1.58256862280243</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.340212616428929</v>
+        <v>1.425221361713186</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1.664357818122086</v>
+        <v>1.520659751992697</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.544611421184524</v>
+        <v>1.615234708139228</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.581344059002775</v>
+        <v>1.593186667196643</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.593912876427414</v>
+        <v>1.322421212030009</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.554072746191849</v>
+        <v>1.588492662021446</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.654938946506878</v>
+        <v>1.474214716752267</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.69528462572331</v>
+        <v>1.407282773933136</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.5926271442161</v>
+        <v>1.459952046983606</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.764859701431515</v>
+        <v>1.389762816651802</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.521123420565981</v>
+        <v>1.507231718535324</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.504896296542557</v>
+        <v>1.641344436205303</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>1.442558966938532</v>
+        <v>1.658498910202916</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.551344685626302</v>
+        <v>1.530851165004145</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.595559336476364</v>
+        <v>1.405982773989394</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.456508099230621</v>
+        <v>1.610388405264407</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.637803054668277</v>
+        <v>1.65494521676926</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.476361172008035</v>
+        <v>1.425280435303159</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.573228706796694</v>
+        <v>1.507613570770315</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.676758671827116</v>
+        <v>1.714146984248505</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.548410487990998</v>
+        <v>1.587545119809839</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.581642783246189</v>
+        <v>1.538323230252278</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.573188925812129</v>
+        <v>1.573285552770907</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.318304224816959</v>
+        <v>1.283451802635223</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.337261751763088</v>
+        <v>1.68382318739226</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.456933148890795</v>
+        <v>1.438911440698956</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.403136633884899</v>
+        <v>1.414069945933436</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.542255846430654</v>
+        <v>1.536642126137654</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.333249041437879</v>
+        <v>1.259447977392831</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.779970178078736</v>
+        <v>1.442681356367619</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.506675277580021</v>
+        <v>1.816306153748901</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.638581208405306</v>
+        <v>1.797889401553412</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.339925626558671</v>
+        <v>1.709139422630007</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.223146708398744</v>
+        <v>1.686267180461539</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.507700194677386</v>
+        <v>1.362311994646455</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.533125690761433</v>
+        <v>1.284628001235144</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.594951820051794</v>
+        <v>1.630354531680493</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.530041342941401</v>
+        <v>1.632362597608046</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.533088108073295</v>
+        <v>1.195463149563546</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.474995377360315</v>
+        <v>1.390907484294977</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.575696049110495</v>
+        <v>1.453520724178532</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.389177036630836</v>
+        <v>1.666405792307348</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.666892550970417</v>
+        <v>1.220730145961738</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.503252568667612</v>
+        <v>1.460101449850894</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.621628001919431</v>
+        <v>1.546658072582666</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.592771930850349</v>
+        <v>1.673671346524015</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.379787296138578</v>
+        <v>1.145231875485477</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.388092733549145</v>
+        <v>1.726928686004425</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.203006030134703</v>
+        <v>1.582980379977142</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.486980749384639</v>
+        <v>1.311435650733451</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.306620836224595</v>
+        <v>1.405355599555864</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.588716507012442</v>
+        <v>1.871201034664626</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.466492519480721</v>
+        <v>1.430576474782325</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.563560929890415</v>
+        <v>1.531003545460785</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1.471942661067135</v>
+        <v>1.33828278681405</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1.267495569078184</v>
+        <v>1.522494286686207</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.5426437641519</v>
+        <v>1.392602537954788</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.611257058709431</v>
+        <v>1.521809361278106</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.45111420904677</v>
+        <v>1.476603532179037</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.452620905584451</v>
+        <v>1.715695811920741</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.4281519845486</v>
+        <v>1.782486402737447</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.4565275581658</v>
+        <v>1.486635449405363</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.588102263146405</v>
+        <v>1.406830012420741</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.367720292806587</v>
+        <v>1.694709177986786</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.824557764507209</v>
+        <v>1.28975042902922</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.643012823147676</v>
+        <v>1.296867435734447</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.511172288580883</v>
+        <v>1.413084468508337</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.463811637316336</v>
+        <v>1.605000043932928</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.568836002213012</v>
+        <v>1.454513711692916</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.404534661064667</v>
+        <v>1.301196346659998</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.818865337771412</v>
+        <v>1.448579652428687</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.54908898713342</v>
+        <v>1.751984519628208</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.567124220818156</v>
+        <v>1.644493419636288</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.302394081536946</v>
+        <v>1.624567489822515</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.403381811270225</v>
+        <v>1.283802330146053</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.774317394202668</v>
+        <v>1.581098088248529</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.375371440313856</v>
+        <v>1.625035825653446</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.48470008522188</v>
+        <v>1.507390959524854</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.249608305011967</v>
+        <v>1.261398021514233</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.502838848129788</v>
+        <v>1.569610892685168</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.676731445798135</v>
+        <v>1.436733334769945</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.63966393972419</v>
+        <v>1.405220311145701</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>1.433108695052718</v>
+        <v>1.623442417495436</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.375923428209889</v>
+        <v>1.617530435358548</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.546729413134439</v>
+        <v>1.637498463114503</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.349671548051179</v>
+        <v>1.661449632115755</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.31893873877371</v>
+        <v>1.464171804813395</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.116903852317414</v>
+        <v>1.380722882977872</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.532386030166823</v>
+        <v>1.220892623711217</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.301631913966554</v>
+        <v>1.34128477296307</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.515618506191556</v>
+        <v>1.203086299677881</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.530226125991085</v>
+        <v>1.237786553615994</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.637643337457783</v>
+        <v>1.619001895829242</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.655265050100286</v>
+        <v>1.447728584880828</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.594937642168249</v>
+        <v>1.241941601340003</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.279161044718222</v>
+        <v>1.577269804441704</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.703536978097423</v>
+        <v>1.518122563645965</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.745549909365696</v>
+        <v>1.348543113760618</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.755230434828679</v>
+        <v>1.565802535036375</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.514067146035904</v>
+        <v>1.717822024303629</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.460479409036318</v>
+        <v>1.267278685982494</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.669331506382895</v>
+        <v>1.41304639338727</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.404064401282368</v>
+        <v>1.332968331922962</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.685291871055102</v>
+        <v>1.582623917829265</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.365255692350099</v>
+        <v>1.487098022198482</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.439612591305987</v>
+        <v>1.634594061872749</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.55076453681524</v>
+        <v>1.385011706914309</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.697005479579448</v>
+        <v>1.434474884388912</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.701228917604772</v>
+        <v>1.652007446976086</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.367064126684459</v>
+        <v>1.330274322007912</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.455300506892737</v>
+        <v>1.645666480076454</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.488298951854687</v>
+        <v>1.541658703137085</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.52396382425762</v>
+        <v>1.447555935226813</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.516206504174021</v>
+        <v>1.452528290140073</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.668258412063865</v>
+        <v>1.651095855338402</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.718928028594013</v>
+        <v>1.57577576191516</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.524230735194112</v>
+        <v>1.448568724077628</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.489859649662187</v>
+        <v>1.511564260855816</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.476948457783587</v>
+        <v>1.538840990765374</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.496252038136183</v>
+        <v>1.444556637321001</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.603071110498408</v>
+        <v>1.527605181249491</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.623673534463973</v>
+        <v>1.39440522113909</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.308141397941923</v>
+        <v>1.597257675247357</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.730055697365459</v>
+        <v>1.712427259576872</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.753858690931222</v>
+        <v>1.606974112747373</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.554881157138806</v>
+        <v>1.335710633065326</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.508936639963122</v>
+        <v>1.397713858460425</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.38307947284984</v>
+        <v>1.586294723453545</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.572454724877682</v>
+        <v>1.863814613404278</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.47164968080626</v>
+        <v>1.455428812267347</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.477260771288038</v>
+        <v>1.625023191092716</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/13_localizer.xlsx
+++ b/sequences/13_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
   </si>
   <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
   </si>
   <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
   </si>
   <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
+    <t>dog/dog054.jpg</t>
   </si>
   <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
   </si>
   <si>
     <t>dog/dog070.jpg</t>
   </si>
   <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
     <t>dog/dog064.jpg</t>
   </si>
   <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
     <t>face/face070.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
+    <t>face/face076.jpg</t>
   </si>
   <si>
     <t>flower/flower081.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.382354286403592</v>
+        <v>1.498021427767618</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.464062691597174</v>
+        <v>1.530559821694179</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.2310084110546</v>
+        <v>1.567151118486792</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.390540583965288</v>
+        <v>1.608594322342739</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.659141748725859</v>
+        <v>1.381363102157861</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.327655083238245</v>
+        <v>1.402813989420528</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.503550622054291</v>
+        <v>1.351634929828768</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.406137317599568</v>
+        <v>1.59129250736994</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.50266957100797</v>
+        <v>1.750392115298909</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.57564143953</v>
+        <v>1.467553220068583</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.361854823665741</v>
+        <v>1.397915576172438</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.575981224915659</v>
+        <v>1.507588191349418</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.401720690272512</v>
+        <v>1.623801783975656</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.649235496219013</v>
+        <v>1.51438963047731</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.40725334332999</v>
+        <v>1.464603694468832</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.733115774545248</v>
+        <v>1.753891283904351</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.39032841250046</v>
+        <v>1.265622869223215</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.686061599676875</v>
+        <v>1.510308470625071</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.552238823626635</v>
+        <v>1.563975485222704</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.483174444134496</v>
+        <v>1.48792669544574</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.411489934614383</v>
+        <v>1.862760237422186</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.569195717991008</v>
+        <v>1.504273008059795</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.649980353195833</v>
+        <v>1.498169795307571</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.508799910902475</v>
+        <v>1.15213424538004</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.662389341668692</v>
+        <v>1.686755994666394</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.13940002299834</v>
+        <v>1.466658349512347</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.621326532129866</v>
+        <v>1.224034119736736</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.733937656370774</v>
+        <v>1.46883288111285</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.434136433009398</v>
+        <v>1.578428136919498</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.688828024018085</v>
+        <v>1.403029435750206</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.67946268390597</v>
+        <v>1.56867118186829</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.425229161311185</v>
+        <v>1.481787419729711</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.597530178404167</v>
+        <v>1.270407825239698</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.525540879381649</v>
+        <v>1.363442043449369</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.156592181204612</v>
+        <v>1.358836004324699</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.594080889213085</v>
+        <v>1.725247968257672</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.484767191817839</v>
+        <v>1.638956213540988</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.484224228159716</v>
+        <v>1.463860494768547</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.643588576795404</v>
+        <v>1.565726446886941</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.32415379286676</v>
+        <v>1.113481049251805</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.137364020657999</v>
+        <v>1.414565100245896</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.340175613826072</v>
+        <v>1.541944359874612</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.567958876999863</v>
+        <v>1.352122822230671</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.804787738058508</v>
+        <v>1.424053052247481</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.544444202486017</v>
+        <v>1.57319583790639</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.530280418077699</v>
+        <v>1.471879832086847</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.33339757459608</v>
+        <v>1.430918145955496</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.618179699973277</v>
+        <v>1.730466666282942</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.462485670759927</v>
+        <v>1.575017657652895</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.427618189808668</v>
+        <v>1.309656937168223</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.339252463192622</v>
+        <v>1.617765643418767</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1.564748207860674</v>
+        <v>1.593761923488006</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.586771296752939</v>
+        <v>1.475472023972221</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.500909226856021</v>
+        <v>1.493506457971083</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.381607126863404</v>
+        <v>1.370889960207209</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.514540644842963</v>
+        <v>1.527017050721003</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.677655059839726</v>
+        <v>1.307866316240993</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.422825073616707</v>
+        <v>1.58212088553361</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.465352163310269</v>
+        <v>1.445249042656573</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.375423394264935</v>
+        <v>1.543831023357739</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.394047183702857</v>
+        <v>1.508109890301975</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.501913126946861</v>
+        <v>1.487448492939584</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.524647190587553</v>
+        <v>1.717388531365916</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.491888914010663</v>
+        <v>1.52027877310244</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.56687166792433</v>
+        <v>1.661430186383891</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.520204762747985</v>
+        <v>1.689389966726429</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.594493320357602</v>
+        <v>1.761816490141625</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.463785521228003</v>
+        <v>1.316922875513935</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.280036603175758</v>
+        <v>1.549834232234379</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.468526228865546</v>
+        <v>1.413009764991859</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.572607926265242</v>
+        <v>1.582937351605314</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.387397396911181</v>
+        <v>1.574290915270939</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.77200030024425</v>
+        <v>1.354447689572099</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.517454823334184</v>
+        <v>1.856627265504163</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.316020721346632</v>
+        <v>1.816266756888343</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.313120107707284</v>
+        <v>1.229522572873443</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.512637576910407</v>
+        <v>1.544132620951453</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.620370214733806</v>
+        <v>1.363776187473073</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.562492962459174</v>
+        <v>1.804651467274333</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.434578234442845</v>
+        <v>1.520789584526795</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.462725123062779</v>
+        <v>1.058755466619374</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.635769907371387</v>
+        <v>1.827317009744088</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.229980941592912</v>
+        <v>1.22329513217637</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.712235923196458</v>
+        <v>1.351430485055311</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.585123581788275</v>
+        <v>1.461268063078044</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.755297821240166</v>
+        <v>1.39730150617087</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.484075896612761</v>
+        <v>1.519267672630306</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.627556473876271</v>
+        <v>1.445312010572659</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.451343709324145</v>
+        <v>1.657678727943378</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.423921393816026</v>
+        <v>1.189910751732836</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.400822461887</v>
+        <v>1.511759307556896</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.619794781639986</v>
+        <v>1.52575228514619</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.425010779328066</v>
+        <v>1.582147433523866</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.362522073274465</v>
+        <v>1.215344703909207</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.499900721370743</v>
+        <v>1.462983957193363</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.336665507261516</v>
+        <v>1.285428882205393</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.606480755356967</v>
+        <v>1.300417858578921</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.522400430918551</v>
+        <v>1.234774206451791</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.529325951460532</v>
+        <v>1.571881380224667</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.607563103758336</v>
+        <v>1.682487576433765</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.473390751422701</v>
+        <v>1.572078263174441</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.531811480275812</v>
+        <v>1.464494990477924</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.510725871977625</v>
+        <v>1.748962259167884</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.250345538603853</v>
+        <v>1.823480227376632</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.386501028132884</v>
+        <v>1.680740811320411</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.437571581364243</v>
+        <v>1.502690539878189</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.386257245016116</v>
+        <v>1.555607231684397</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.355505799428867</v>
+        <v>1.381180862268945</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.522282003988797</v>
+        <v>1.619526551189454</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.346518238712838</v>
+        <v>1.673740083188537</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.489274679566384</v>
+        <v>1.616327602435481</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.586750150767286</v>
+        <v>1.422786836157799</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.526807887096964</v>
+        <v>1.62264919111437</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.67982142963491</v>
+        <v>1.310200256003491</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.799161133829222</v>
+        <v>1.454787027050552</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.663063287634232</v>
+        <v>1.64926038646087</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1.576039994504798</v>
+        <v>1.107213030971815</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.5361107177366</v>
+        <v>1.661290263487872</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.496544872224131</v>
+        <v>1.364724879251294</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.79467183393238</v>
+        <v>1.386336485643076</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.5675448135432</v>
+        <v>1.582591360430353</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.802363304225272</v>
+        <v>1.636816384940874</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.153587738295418</v>
+        <v>1.493918892717267</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.38037231467034</v>
+        <v>1.63542068695463</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.58256862280243</v>
+        <v>1.298522548135836</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.425221361713186</v>
+        <v>1.685247051378476</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.520659751992697</v>
+        <v>1.541967774812417</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.615234708139228</v>
+        <v>1.43518027405167</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.593186667196643</v>
+        <v>1.521002289295267</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.322421212030009</v>
+        <v>1.272502016166764</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.588492662021446</v>
+        <v>1.463494568573787</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.474214716752267</v>
+        <v>1.465059093040646</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.407282773933136</v>
+        <v>1.289457648654279</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.459952046983606</v>
+        <v>1.45129212980164</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.389762816651802</v>
+        <v>1.256497885005663</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.507231718535324</v>
+        <v>1.410716914235048</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1.641344436205303</v>
+        <v>1.328254514503725</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.658498910202916</v>
+        <v>1.27815981240557</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.530851165004145</v>
+        <v>1.454478591892772</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.405982773989394</v>
+        <v>1.404135985365365</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.610388405264407</v>
+        <v>1.612972926628032</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.65494521676926</v>
+        <v>1.631073970729886</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.425280435303159</v>
+        <v>1.272701380434836</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.507613570770315</v>
+        <v>1.670408488037007</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.714146984248505</v>
+        <v>1.841123857835843</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.587545119809839</v>
+        <v>1.521491667392324</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.538323230252278</v>
+        <v>1.843372545203658</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.573285552770907</v>
+        <v>1.697841141782505</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.283451802635223</v>
+        <v>1.502531892584591</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.68382318739226</v>
+        <v>1.412724694185584</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.438911440698956</v>
+        <v>1.289585542685668</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.414069945933436</v>
+        <v>1.409643276981358</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.536642126137654</v>
+        <v>1.524630327112044</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.259447977392831</v>
+        <v>1.680546266089446</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.442681356367619</v>
+        <v>1.54895656135517</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.816306153748901</v>
+        <v>1.288370497513217</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.797889401553412</v>
+        <v>1.514345801838297</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.709139422630007</v>
+        <v>1.61721989651591</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.686267180461539</v>
+        <v>1.623305533350617</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.362311994646455</v>
+        <v>1.447218786561059</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.284628001235144</v>
+        <v>1.617838734257232</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.630354531680493</v>
+        <v>1.714281759303774</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.632362597608046</v>
+        <v>1.526263223584684</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.195463149563546</v>
+        <v>1.757613276149198</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.390907484294977</v>
+        <v>1.432279233380904</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.453520724178532</v>
+        <v>1.584520990899183</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.666405792307348</v>
+        <v>1.705038792876898</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>1.220730145961738</v>
+        <v>1.48216584416036</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.460101449850894</v>
+        <v>1.624979162320951</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.546658072582666</v>
+        <v>1.416285236376591</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.673671346524015</v>
+        <v>1.475862607631788</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.145231875485477</v>
+        <v>1.826772326514518</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.726928686004425</v>
+        <v>1.351986028168332</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.582980379977142</v>
+        <v>1.742362826020108</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.311435650733451</v>
+        <v>1.602368202437067</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.405355599555864</v>
+        <v>1.627616596646626</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.871201034664626</v>
+        <v>1.505670111627356</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.430576474782325</v>
+        <v>1.723675071845127</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.531003545460785</v>
+        <v>1.268410626662147</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.33828278681405</v>
+        <v>1.528578207205269</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.522494286686207</v>
+        <v>1.560876709846066</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.392602537954788</v>
+        <v>1.221941242627401</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.521809361278106</v>
+        <v>1.544087574817264</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.476603532179037</v>
+        <v>1.61006844168701</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.715695811920741</v>
+        <v>1.607020360545381</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.782486402737447</v>
+        <v>1.3229820862342</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.486635449405363</v>
+        <v>1.501949690009696</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.406830012420741</v>
+        <v>1.582447763290038</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.694709177986786</v>
+        <v>1.600300486257122</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.28975042902922</v>
+        <v>1.356408345648064</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.296867435734447</v>
+        <v>1.456599631236586</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.413084468508337</v>
+        <v>1.527242403470899</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.605000043932928</v>
+        <v>1.297872732846672</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.454513711692916</v>
+        <v>1.359159234090674</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.301196346659998</v>
+        <v>1.540432727794749</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.448579652428687</v>
+        <v>1.35459493067046</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.751984519628208</v>
+        <v>1.535745364206037</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>1.644493419636288</v>
+        <v>1.197829997599724</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.624567489822515</v>
+        <v>1.664938999577775</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.283802330146053</v>
+        <v>1.657603460728317</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.581098088248529</v>
+        <v>1.582185256904785</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.625035825653446</v>
+        <v>1.548102607314969</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.507390959524854</v>
+        <v>1.879618145847899</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.261398021514233</v>
+        <v>1.538505505921095</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.569610892685168</v>
+        <v>1.760202178375804</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.436733334769945</v>
+        <v>1.401976463030473</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.405220311145701</v>
+        <v>1.485691185007422</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.623442417495436</v>
+        <v>1.486445851441659</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.617530435358548</v>
+        <v>1.096600886880365</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.637498463114503</v>
+        <v>1.567318790631007</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.661449632115755</v>
+        <v>1.240196456388951</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.464171804813395</v>
+        <v>1.568316854537968</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.380722882977872</v>
+        <v>1.537915316522481</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.220892623711217</v>
+        <v>1.529363141588291</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.34128477296307</v>
+        <v>1.495994699950784</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.203086299677881</v>
+        <v>1.468530804545009</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.237786553615994</v>
+        <v>1.436473942306336</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.619001895829242</v>
+        <v>1.45411955718584</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.447728584880828</v>
+        <v>1.582215177723091</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.241941601340003</v>
+        <v>1.348395184342295</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.577269804441704</v>
+        <v>1.623035117613621</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.518122563645965</v>
+        <v>1.326586621418882</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.348543113760618</v>
+        <v>1.656422407361195</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.565802535036375</v>
+        <v>1.528130100708614</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.717822024303629</v>
+        <v>1.631010991119716</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.267278685982494</v>
+        <v>1.475251223267446</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.41304639338727</v>
+        <v>1.564951120150884</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.332968331922962</v>
+        <v>1.697180945568718</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>1.582623917829265</v>
+        <v>1.630202920782032</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.487098022198482</v>
+        <v>1.393954288616936</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.634594061872749</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.385011706914309</v>
+        <v>1.169682935130035</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.434474884388912</v>
+        <v>1.809272877904813</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.652007446976086</v>
+        <v>1.479918756029594</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.330274322007912</v>
+        <v>1.573837563413014</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.645666480076454</v>
+        <v>1.350776859464213</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.541658703137085</v>
+        <v>1.424933587396966</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.447555935226813</v>
+        <v>1.715006761922684</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.452528290140073</v>
+        <v>1.401691051527036</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.651095855338402</v>
+        <v>1.573062525741674</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.57577576191516</v>
+        <v>1.402831210500685</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.448568724077628</v>
+        <v>1.654046449166305</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.511564260855816</v>
+        <v>1.639840454160046</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.538840990765374</v>
+        <v>1.444529286427801</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.444556637321001</v>
+        <v>1.410759559301141</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.527605181249491</v>
+        <v>1.391485214771894</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.39440522113909</v>
+        <v>1.304079802827347</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.597257675247357</v>
+        <v>1.429719555585781</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.712427259576872</v>
+        <v>1.712303349625574</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.606974112747373</v>
+        <v>1.59641016897765</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.335710633065326</v>
+        <v>1.585025578816136</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.397713858460425</v>
+        <v>1.215540690392301</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.586294723453545</v>
+        <v>1.584703620969831</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.863814613404278</v>
+        <v>1.246623242052343</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.455428812267347</v>
+        <v>1.290276108972284</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.625023191092716</v>
+        <v>1.628796870403856</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/13_localizer.xlsx
+++ b/sequences/13_localizer.xlsx
@@ -31,781 +31,781 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
   </si>
   <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
+    <t>face/face044.jpg</t>
   </si>
   <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
   </si>
   <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>face/face054.jpg</t>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>face/face063.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
+    <t>face/face060.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
+    <t>flower/flower055.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>face/face068.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>dog/dog064.jpg</t>
   </si>
   <si>
     <t>flower/flower077.jpg</t>
   </si>
   <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
   </si>
   <si>
     <t>dog/dog081.jpg</t>
   </si>
   <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
     <t>flower/flower090.jpg</t>
   </si>
   <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
     <t>face/face094.jpg</t>
   </si>
   <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
+    <t>face/face087.jpg</t>
   </si>
   <si>
     <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.498021427767618</v>
+        <v>1.639785540929328</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.530559821694179</v>
+        <v>1.314328932199014</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.567151118486792</v>
+        <v>1.242136500329239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.608594322342739</v>
+        <v>1.314219358311286</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.381363102157861</v>
+        <v>1.550865837754925</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.402813989420528</v>
+        <v>1.476962622277214</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.351634929828768</v>
+        <v>1.550475222102833</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.59129250736994</v>
+        <v>1.398631201144091</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.750392115298909</v>
+        <v>1.723871799323851</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.467553220068583</v>
+        <v>1.359593823831722</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.397915576172438</v>
+        <v>1.513024768436449</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.507588191349418</v>
+        <v>1.841350372408756</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.623801783975656</v>
+        <v>1.273236050809704</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.51438963047731</v>
+        <v>1.376634427620942</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.464603694468832</v>
+        <v>1.591306502311687</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.753891283904351</v>
+        <v>1.728278563761112</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.265622869223215</v>
+        <v>1.481342484761507</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.510308470625071</v>
+        <v>1.328686006393792</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.563975485222704</v>
+        <v>1.505447595726927</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.48792669544574</v>
+        <v>1.571720068393944</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.862760237422186</v>
+        <v>1.778434899954729</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.504273008059795</v>
+        <v>1.679167849477765</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.498169795307571</v>
+        <v>1.671711140363082</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.15213424538004</v>
+        <v>1.422234926552896</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.686755994666394</v>
+        <v>1.413439793392253</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.466658349512347</v>
+        <v>1.352000579448175</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.224034119736736</v>
+        <v>1.408979476548937</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.46883288111285</v>
+        <v>1.488223645991772</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1.578428136919498</v>
+        <v>1.19591868079766</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.403029435750206</v>
+        <v>1.513211992956497</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.56867118186829</v>
+        <v>1.439666396589239</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.481787419729711</v>
+        <v>1.227497654830952</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.270407825239698</v>
+        <v>1.180240009361099</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.363442043449369</v>
+        <v>1.700426441141511</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.358836004324699</v>
+        <v>1.458241698612109</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.725247968257672</v>
+        <v>1.439991560964173</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.638956213540988</v>
+        <v>1.426478599328856</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.463860494768547</v>
+        <v>1.66583186926703</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.565726446886941</v>
+        <v>1.491824891563571</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.113481049251805</v>
+        <v>1.224603689777781</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.414565100245896</v>
+        <v>1.502776930035425</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.541944359874612</v>
+        <v>1.396068684660267</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.352122822230671</v>
+        <v>1.439897500635947</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.424053052247481</v>
+        <v>1.523149797608951</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.57319583790639</v>
+        <v>1.436263437431156</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.471879832086847</v>
+        <v>1.41260678533086</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.430918145955496</v>
+        <v>1.736819837526657</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.730466666282942</v>
+        <v>1.691755828775113</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.575017657652895</v>
+        <v>1.441085184506007</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.309656937168223</v>
+        <v>1.491522838879014</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.617765643418767</v>
+        <v>1.648635835633834</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.593761923488006</v>
+        <v>1.470687083790903</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.475472023972221</v>
+        <v>1.487411990755277</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.493506457971083</v>
+        <v>1.324482870412224</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.370889960207209</v>
+        <v>1.433328486186254</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.527017050721003</v>
+        <v>1.671997191119614</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.307866316240993</v>
+        <v>1.327158723323379</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.58212088553361</v>
+        <v>1.572557322972029</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.445249042656573</v>
+        <v>1.567251629407698</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.543831023357739</v>
+        <v>1.287027801623386</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.508109890301975</v>
+        <v>1.593446418677278</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.487448492939584</v>
+        <v>1.493027112543267</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.717388531365916</v>
+        <v>1.653164946694221</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.52027877310244</v>
+        <v>1.792713574522409</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.661430186383891</v>
+        <v>1.479096565361494</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.689389966726429</v>
+        <v>1.31237247836921</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.761816490141625</v>
+        <v>1.434052990881608</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.316922875513935</v>
+        <v>1.276039320528708</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.549834232234379</v>
+        <v>1.446261798320369</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.413009764991859</v>
+        <v>1.130529555541909</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.582937351605314</v>
+        <v>1.529778884840009</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.574290915270939</v>
+        <v>1.296385257100318</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.354447689572099</v>
+        <v>1.513429426998427</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.856627265504163</v>
+        <v>1.367691122851998</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.816266756888343</v>
+        <v>1.418083535733269</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.229522572873443</v>
+        <v>1.514708798257151</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.544132620951453</v>
+        <v>1.373706575504259</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.363776187473073</v>
+        <v>1.672740101122561</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.804651467274333</v>
+        <v>1.451470110305658</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.520789584526795</v>
+        <v>1.685021788200537</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.058755466619374</v>
+        <v>1.517402975433511</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.827317009744088</v>
+        <v>1.327307750335537</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.22329513217637</v>
+        <v>1.817501896597237</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.351430485055311</v>
+        <v>1.551806860669563</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.461268063078044</v>
+        <v>1.551121225203829</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.39730150617087</v>
+        <v>1.6749283843171</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.519267672630306</v>
+        <v>1.503866524660399</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1.445312010572659</v>
+        <v>1.628076860162766</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.657678727943378</v>
+        <v>1.43422989232565</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.189910751732836</v>
+        <v>1.364566240585598</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.511759307556896</v>
+        <v>1.505916471487254</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.52575228514619</v>
+        <v>1.545741539394338</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.582147433523866</v>
+        <v>1.440055299153186</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.215344703909207</v>
+        <v>1.495386338824357</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.462983957193363</v>
+        <v>1.491683973957651</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.285428882205393</v>
+        <v>1.490309271438032</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.300417858578921</v>
+        <v>1.290396320990543</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.234774206451791</v>
+        <v>1.280118935775982</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.571881380224667</v>
+        <v>1.420164665887021</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.682487576433765</v>
+        <v>1.782904512168887</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.572078263174441</v>
+        <v>1.304117249285279</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.464494990477924</v>
+        <v>1.47505555632617</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.748962259167884</v>
+        <v>1.656856521599467</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.823480227376632</v>
+        <v>1.693957540072253</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.680740811320411</v>
+        <v>1.470624011871619</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.502690539878189</v>
+        <v>1.697180147666911</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.555607231684397</v>
+        <v>1.4708804466527</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.381180862268945</v>
+        <v>1.434151144033855</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.619526551189454</v>
+        <v>1.879188435790863</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.673740083188537</v>
+        <v>1.387329443146489</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.616327602435481</v>
+        <v>1.686012394982112</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.422786836157799</v>
+        <v>1.665431687182063</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.62264919111437</v>
+        <v>1.474638553249138</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.310200256003491</v>
+        <v>1.299297289140351</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.454787027050552</v>
+        <v>1.62439752588203</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.64926038646087</v>
+        <v>1.546240693171128</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.107213030971815</v>
+        <v>1.448515431809042</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.661290263487872</v>
+        <v>1.29835447195551</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.364724879251294</v>
+        <v>1.602034440721528</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.386336485643076</v>
+        <v>1.436712054319837</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.582591360430353</v>
+        <v>1.368158925690469</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.636816384940874</v>
+        <v>1.577132311042787</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.493918892717267</v>
+        <v>1.400652763601806</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.63542068695463</v>
+        <v>1.69449742693142</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.298522548135836</v>
+        <v>1.578042288903968</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.685247051378476</v>
+        <v>1.474503335091364</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.541967774812417</v>
+        <v>1.211800912645124</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.43518027405167</v>
+        <v>1.409769143148757</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.521002289295267</v>
+        <v>1.709848342659726</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.272502016166764</v>
+        <v>1.245144900187179</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.463494568573787</v>
+        <v>1.653374487002582</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.465059093040646</v>
+        <v>1.763691016855705</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.289457648654279</v>
+        <v>1.633588103327663</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.45129212980164</v>
+        <v>1.596371019475685</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.256497885005663</v>
+        <v>1.654620922728521</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.410716914235048</v>
+        <v>1.49664676911775</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.328254514503725</v>
+        <v>1.386945835483153</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.27815981240557</v>
+        <v>1.401009001707446</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.454478591892772</v>
+        <v>1.536253911264727</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.404135985365365</v>
+        <v>1.53512478313911</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.612972926628032</v>
+        <v>1.637349066658081</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.631073970729886</v>
+        <v>1.386284464157876</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.272701380434836</v>
+        <v>1.508392466614122</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.670408488037007</v>
+        <v>1.412783081137966</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.841123857835843</v>
+        <v>1.384056999094571</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.521491667392324</v>
+        <v>1.432743858455095</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.843372545203658</v>
+        <v>1.470830280547724</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.697841141782505</v>
+        <v>1.427637352663012</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.502531892584591</v>
+        <v>1.692335090091185</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.412724694185584</v>
+        <v>1.416895703806639</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.289585542685668</v>
+        <v>1.67143488141838</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.409643276981358</v>
+        <v>1.794308063077858</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.524630327112044</v>
+        <v>1.434452435320647</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.680546266089446</v>
+        <v>1.552322058251251</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.54895656135517</v>
+        <v>1.508200749142443</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.288370497513217</v>
+        <v>1.76169987126699</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.514345801838297</v>
+        <v>1.46249282795533</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.61721989651591</v>
+        <v>1.327110610419115</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.623305533350617</v>
+        <v>1.556726696351276</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.447218786561059</v>
+        <v>1.334253240115242</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.617838734257232</v>
+        <v>1.674905498327926</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.714281759303774</v>
+        <v>1.725408513655274</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.526263223584684</v>
+        <v>1.591197618819567</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.757613276149198</v>
+        <v>1.50812653616966</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.432279233380904</v>
+        <v>1.34980609483435</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.584520990899183</v>
+        <v>1.70141763636494</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.705038792876898</v>
+        <v>1.035123659363815</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.48216584416036</v>
+        <v>1.395588523669907</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.624979162320951</v>
+        <v>1.55764804686195</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.416285236376591</v>
+        <v>1.398118776161346</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.475862607631788</v>
+        <v>1.558988016658224</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.826772326514518</v>
+        <v>1.312362856817473</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.351986028168332</v>
+        <v>1.596068776016197</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.742362826020108</v>
+        <v>1.435047050569163</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.602368202437067</v>
+        <v>1.699643173235233</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.627616596646626</v>
+        <v>1.477611590042102</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.505670111627356</v>
+        <v>1.504516864089862</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.723675071845127</v>
+        <v>1.412515062043335</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.268410626662147</v>
+        <v>1.478793872990692</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.528578207205269</v>
+        <v>1.555951359352401</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.560876709846066</v>
+        <v>1.223080330871666</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.221941242627401</v>
+        <v>1.597121463212941</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.544087574817264</v>
+        <v>1.752984160525292</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.61006844168701</v>
+        <v>1.539715858287897</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.607020360545381</v>
+        <v>1.626585348796486</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.3229820862342</v>
+        <v>1.700802270468389</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.501949690009696</v>
+        <v>1.577565966577178</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.582447763290038</v>
+        <v>1.783069505368253</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.600300486257122</v>
+        <v>1.333605021709143</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.356408345648064</v>
+        <v>1.51510023530833</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.456599631236586</v>
+        <v>1.51186355230746</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.527242403470899</v>
+        <v>1.573581356135953</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>1.297872732846672</v>
+        <v>1.483605023257343</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.359159234090674</v>
+        <v>1.420635345475796</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.540432727794749</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.35459493067046</v>
+        <v>1.670240799379152</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.535745364206037</v>
+        <v>1.641978404002509</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.197829997599724</v>
+        <v>1.50792428645528</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.664938999577775</v>
+        <v>1.35606666700306</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.657603460728317</v>
+        <v>1.592628708074789</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.582185256904785</v>
+        <v>1.325385913576234</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.548102607314969</v>
+        <v>1.404505936256454</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.879618145847899</v>
+        <v>1.812855547074052</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.538505505921095</v>
+        <v>1.448547898550046</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.760202178375804</v>
+        <v>1.367949002520878</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.401976463030473</v>
+        <v>1.584127676557117</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.485691185007422</v>
+        <v>1.180057616764748</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.486445851441659</v>
+        <v>1.263105537968636</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.096600886880365</v>
+        <v>1.50020406949543</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.567318790631007</v>
+        <v>1.627754107333049</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.240196456388951</v>
+        <v>1.926279803340651</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.568316854537968</v>
+        <v>1.238930765035224</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.537915316522481</v>
+        <v>1.487126034831544</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.529363141588291</v>
+        <v>1.247991846347031</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.495994699950784</v>
+        <v>1.662603368939416</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.468530804545009</v>
+        <v>1.473130811425215</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.436473942306336</v>
+        <v>1.486818304384696</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.45411955718584</v>
+        <v>1.267592078068135</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.582215177723091</v>
+        <v>1.353711945215479</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.348395184342295</v>
+        <v>1.494425869555928</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.623035117613621</v>
+        <v>1.470969274670966</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.326586621418882</v>
+        <v>1.671918577302717</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.656422407361195</v>
+        <v>1.337169488130895</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.528130100708614</v>
+        <v>1.862422486713625</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.631010991119716</v>
+        <v>1.525787817927335</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.475251223267446</v>
+        <v>1.778629725865585</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.564951120150884</v>
+        <v>1.782957511550253</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.697180945568718</v>
+        <v>1.456436906295052</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.630202920782032</v>
+        <v>1.349484925607267</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.393954288616936</v>
+        <v>1.436425145743127</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>2</v>
+        <v>1.738705610982121</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.169682935130035</v>
+        <v>1.471683444787917</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.809272877904813</v>
+        <v>1.655940913027481</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.479918756029594</v>
+        <v>1.504345983406769</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.573837563413014</v>
+        <v>1.599343386183525</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.350776859464213</v>
+        <v>1.199731421229687</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.424933587396966</v>
+        <v>1.321032047212221</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.715006761922684</v>
+        <v>1.485137953213368</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.401691051527036</v>
+        <v>1.692374319557667</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.573062525741674</v>
+        <v>1.613968248197299</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.402831210500685</v>
+        <v>1.605519025002468</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.654046449166305</v>
+        <v>1.473996817779928</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.639840454160046</v>
+        <v>1.496794849546112</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.444529286427801</v>
+        <v>1.552671362313093</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.410759559301141</v>
+        <v>1.702050949137681</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.391485214771894</v>
+        <v>1.23530472476043</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.304079802827347</v>
+        <v>1.696805232467705</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.429719555585781</v>
+        <v>1.348998384482375</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.712303349625574</v>
+        <v>1.34719232946769</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.59641016897765</v>
+        <v>1.303341518992944</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.585025578816136</v>
+        <v>1.49489603840176</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.215540690392301</v>
+        <v>1.540937498301922</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.584703620969831</v>
+        <v>1.353318016285582</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.246623242052343</v>
+        <v>1.719576319054264</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.290276108972284</v>
+        <v>1.49516584035307</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.628796870403856</v>
+        <v>1.306236766370163</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/13_localizer.xlsx
+++ b/sequences/13_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>dog/dog046.jpg</t>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>flower/flower063.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
   </si>
   <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>flower/flower053.jpg</t>
   </si>
   <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
     <t>dog/dog064.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
   </si>
   <si>
     <t>dog/dog094.jpg</t>
   </si>
   <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
     <t>dog/dog090.jpg</t>
   </si>
   <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
+    <t>dog/dog086.jpg</t>
   </si>
   <si>
     <t>house/house093.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
   </si>
   <si>
     <t>dog/dog081.jpg</t>
   </si>
   <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
     <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.639785540929328</v>
+        <v>1.361375674098247</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.314328932199014</v>
+        <v>1.479870706749613</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.242136500329239</v>
+        <v>1.22276536308075</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.314219358311286</v>
+        <v>1.597806918671732</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.550865837754925</v>
+        <v>1.766683128434177</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.476962622277214</v>
+        <v>1.568064920990087</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.550475222102833</v>
+        <v>1.428677796250294</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.398631201144091</v>
+        <v>1.345710372377271</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.723871799323851</v>
+        <v>1.410087180196868</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.359593823831722</v>
+        <v>1.524221924050555</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.513024768436449</v>
+        <v>1.642239705189918</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.841350372408756</v>
+        <v>1.687634204463116</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.273236050809704</v>
+        <v>1.151002059840373</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.376634427620942</v>
+        <v>1.544048083434591</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.591306502311687</v>
+        <v>1.444655536859658</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.728278563761112</v>
+        <v>1.523783836525209</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.481342484761507</v>
+        <v>1.490161493048008</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.328686006393792</v>
+        <v>1.385635404370858</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.505447595726927</v>
+        <v>1.544497389084515</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.571720068393944</v>
+        <v>1.548064583630407</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.778434899954729</v>
+        <v>1.783501700822822</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.679167849477765</v>
+        <v>1.282880341123252</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.671711140363082</v>
+        <v>1.709887560439188</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.422234926552896</v>
+        <v>1.578799436446266</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.413439793392253</v>
+        <v>1.278242909914924</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.352000579448175</v>
+        <v>1.580075039061559</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.408979476548937</v>
+        <v>1.596368130427047</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.488223645991772</v>
+        <v>1.408961363635849</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.19591868079766</v>
+        <v>1.520386190694859</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.513211992956497</v>
+        <v>1.602563480622657</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.439666396589239</v>
+        <v>1.477160802806529</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.227497654830952</v>
+        <v>1.673528213066792</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.180240009361099</v>
+        <v>1.588739418258058</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.700426441141511</v>
+        <v>1.762493179479988</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.458241698612109</v>
+        <v>1.578157822460942</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.439991560964173</v>
+        <v>1.483396420917436</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.426478599328856</v>
+        <v>1.528830965640438</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.66583186926703</v>
+        <v>1.45200274923682</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.491824891563571</v>
+        <v>1.509880706203348</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.224603689777781</v>
+        <v>1.639910574754182</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.502776930035425</v>
+        <v>1.615974480182347</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.396068684660267</v>
+        <v>1.408258400272325</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.439897500635947</v>
+        <v>1.510909973023089</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.523149797608951</v>
+        <v>1.4560772427191</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.436263437431156</v>
+        <v>1.243039413279316</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.41260678533086</v>
+        <v>1.561265220384056</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.736819837526657</v>
+        <v>1.444693253908134</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.691755828775113</v>
+        <v>1.643491407949798</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.441085184506007</v>
+        <v>1.394846202343826</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.491522838879014</v>
+        <v>1.596273494497256</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.648635835633834</v>
+        <v>1.564941865593732</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.470687083790903</v>
+        <v>1.674616509217771</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.487411990755277</v>
+        <v>1.570926124570815</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.324482870412224</v>
+        <v>1.438185739797199</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.433328486186254</v>
+        <v>1.579058566452059</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.671997191119614</v>
+        <v>1.45268106268944</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.327158723323379</v>
+        <v>1.425002771903134</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.572557322972029</v>
+        <v>1.35829250203454</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.567251629407698</v>
+        <v>1.428783511856391</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.287027801623386</v>
+        <v>1.411329275205828</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.593446418677278</v>
+        <v>1.464073310782622</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.493027112543267</v>
+        <v>1.526758520905653</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.653164946694221</v>
+        <v>1.723529853569367</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.792713574522409</v>
+        <v>1.283912892626058</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.479096565361494</v>
+        <v>1.344420675786134</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.31237247836921</v>
+        <v>1.313829427299237</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.434052990881608</v>
+        <v>1.393113546858566</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.276039320528708</v>
+        <v>1.570937607356592</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.446261798320369</v>
+        <v>1.845221704752716</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.130529555541909</v>
+        <v>1.301064946743308</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.529778884840009</v>
+        <v>1.275584994705598</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.296385257100318</v>
+        <v>1.303585018768288</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.513429426998427</v>
+        <v>1.314673408900211</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.367691122851998</v>
+        <v>1.534200583452087</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.418083535733269</v>
+        <v>1.377628178788314</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.514708798257151</v>
+        <v>1.627167506413661</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.373706575504259</v>
+        <v>1.236920562073025</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.672740101122561</v>
+        <v>1.201963277136217</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.451470110305658</v>
+        <v>1.590319126841695</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.685021788200537</v>
+        <v>1.340121310892475</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.517402975433511</v>
+        <v>1.450611453414692</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.327307750335537</v>
+        <v>1.532686634870888</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.817501896597237</v>
+        <v>1.358377920328385</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.551806860669563</v>
+        <v>1.160678068504178</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.551121225203829</v>
+        <v>1.428166745466103</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.6749283843171</v>
+        <v>1.562438649243783</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.503866524660399</v>
+        <v>1.378656553892541</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1.628076860162766</v>
+        <v>1.550713988841536</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.43422989232565</v>
+        <v>1.601367575683275</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.364566240585598</v>
+        <v>1.125267891596143</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.505916471487254</v>
+        <v>1.433494114697609</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.545741539394338</v>
+        <v>1.520894006544986</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.440055299153186</v>
+        <v>1.532995827676725</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.495386338824357</v>
+        <v>1.452404541262547</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.491683973957651</v>
+        <v>1.534210266714313</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.490309271438032</v>
+        <v>1.418382920294729</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.290396320990543</v>
+        <v>1.177724322027685</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.280118935775982</v>
+        <v>1.534405624515784</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.420164665887021</v>
+        <v>1.355274339029177</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.782904512168887</v>
+        <v>1.540188730640669</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.304117249285279</v>
+        <v>1.338499760653463</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.47505555632617</v>
+        <v>1.457478925294593</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.656856521599467</v>
+        <v>1.483040749417052</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.693957540072253</v>
+        <v>1.314376640828042</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.470624011871619</v>
+        <v>1.607474666628365</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1.697180147666911</v>
+        <v>1.340183928388321</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.4708804466527</v>
+        <v>1.042554359337891</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.434151144033855</v>
+        <v>1.422532775493816</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.879188435790863</v>
+        <v>1.333331823356921</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.387329443146489</v>
+        <v>1.362636672965506</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.686012394982112</v>
+        <v>1.724900853568933</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.665431687182063</v>
+        <v>1.342941138989636</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.474638553249138</v>
+        <v>1.506664085352616</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.299297289140351</v>
+        <v>1.587517240111264</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.62439752588203</v>
+        <v>1.599425193931503</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.546240693171128</v>
+        <v>1.450302181779259</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.448515431809042</v>
+        <v>1.54943022050264</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.29835447195551</v>
+        <v>1.446912944026341</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.602034440721528</v>
+        <v>1.263029084957742</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.436712054319837</v>
+        <v>1.351923270862488</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.368158925690469</v>
+        <v>1.424413129220575</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.577132311042787</v>
+        <v>1.656772204138141</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.400652763601806</v>
+        <v>1.712112684330294</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.69449742693142</v>
+        <v>1.544130313843547</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.578042288903968</v>
+        <v>1.608119759259121</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.474503335091364</v>
+        <v>1.540572248961829</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.211800912645124</v>
+        <v>1.557126655607909</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.409769143148757</v>
+        <v>1.349307763012152</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.709848342659726</v>
+        <v>1.555679422816414</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.245144900187179</v>
+        <v>1.716274677953259</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.653374487002582</v>
+        <v>1.853561379477503</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.763691016855705</v>
+        <v>1.601798473204914</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.633588103327663</v>
+        <v>1.510043738381306</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.596371019475685</v>
+        <v>1.305107999188227</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.654620922728521</v>
+        <v>1.704812561082863</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.49664676911775</v>
+        <v>1.580174198259239</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.386945835483153</v>
+        <v>1.560978603485045</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.401009001707446</v>
+        <v>1.572209371718813</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.536253911264727</v>
+        <v>1.274973093094998</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.53512478313911</v>
+        <v>1.448273800004052</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.637349066658081</v>
+        <v>1.433456871159887</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.386284464157876</v>
+        <v>1.590995289611291</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.508392466614122</v>
+        <v>1.501289827118361</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.412783081137966</v>
+        <v>1.461723444326593</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.384056999094571</v>
+        <v>1.495717106485142</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.432743858455095</v>
+        <v>1.412804974795815</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.470830280547724</v>
+        <v>1.625006302376729</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.427637352663012</v>
+        <v>1.57633288179004</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.692335090091185</v>
+        <v>1.350301743083525</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.416895703806639</v>
+        <v>1.612927166461573</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>1.67143488141838</v>
+        <v>1.440079256165133</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.794308063077858</v>
+        <v>1.58659175883937</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.434452435320647</v>
+        <v>1.470260937747515</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.552322058251251</v>
+        <v>1.647043058516078</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.508200749142443</v>
+        <v>1.581689464056592</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.76169987126699</v>
+        <v>1.270470735388313</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.46249282795533</v>
+        <v>1.413527807186309</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.327110610419115</v>
+        <v>1.573938722926535</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.556726696351276</v>
+        <v>1.487939880616862</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.334253240115242</v>
+        <v>1.640197503775543</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.674905498327926</v>
+        <v>1.439992106892325</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.725408513655274</v>
+        <v>1.378553120213465</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.591197618819567</v>
+        <v>1.259389721843494</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.50812653616966</v>
+        <v>1.322397507102801</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.34980609483435</v>
+        <v>1.345206860461938</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.70141763636494</v>
+        <v>1.72141236237187</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.035123659363815</v>
+        <v>1.356890063447311</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.395588523669907</v>
+        <v>1.672812136123651</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.55764804686195</v>
+        <v>1.501350677892495</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.398118776161346</v>
+        <v>1.459837813242557</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.558988016658224</v>
+        <v>1.68603298050456</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.312362856817473</v>
+        <v>1.644091785457284</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.596068776016197</v>
+        <v>1.2005251868426</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.435047050569163</v>
+        <v>1.479121951053179</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.699643173235233</v>
+        <v>1.369742327900246</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.477611590042102</v>
+        <v>1.605006671862998</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.504516864089862</v>
+        <v>1.400434082045797</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.412515062043335</v>
+        <v>1.778570838768457</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.478793872990692</v>
+        <v>1.123895735382356</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.555951359352401</v>
+        <v>1.538032832596849</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.223080330871666</v>
+        <v>1.453656426068759</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.597121463212941</v>
+        <v>1.642399597948577</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.752984160525292</v>
+        <v>1.466227759470476</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.539715858287897</v>
+        <v>1.293652461010017</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.626585348796486</v>
+        <v>1.293117486868768</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.700802270468389</v>
+        <v>1.339321864158307</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.577565966577178</v>
+        <v>1.686254540402342</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.783069505368253</v>
+        <v>1.742681388308553</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.333605021709143</v>
+        <v>1.6710475025329</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.51510023530833</v>
+        <v>1.322619380177575</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.51186355230746</v>
+        <v>1.492433905176682</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.573581356135953</v>
+        <v>1.526346843260339</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.483605023257343</v>
+        <v>1.358830914861175</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.420635345475796</v>
+        <v>1.442665516184945</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>1.355353757379379</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.670240799379152</v>
+        <v>1.400661017140487</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.641978404002509</v>
+        <v>1.60377674237616</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.50792428645528</v>
+        <v>1.45537306533396</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.35606666700306</v>
+        <v>1.564173258347354</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.592628708074789</v>
+        <v>1.614871296378711</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.325385913576234</v>
+        <v>1.647618796213359</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.404505936256454</v>
+        <v>1.463816631729946</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.812855547074052</v>
+        <v>1.391079173753377</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.448547898550046</v>
+        <v>1.489545123203443</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.367949002520878</v>
+        <v>1.391525734148763</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.584127676557117</v>
+        <v>1.677552795004296</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.180057616764748</v>
+        <v>1.495770609660066</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.263105537968636</v>
+        <v>1.405803673484803</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.50020406949543</v>
+        <v>1.546823366440132</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.627754107333049</v>
+        <v>1.297045784333078</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.926279803340651</v>
+        <v>1.320515531884123</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.238930765035224</v>
+        <v>1.568014986568453</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.487126034831544</v>
+        <v>1.387644113132013</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.247991846347031</v>
+        <v>1.612422964351185</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.662603368939416</v>
+        <v>1.491241720232326</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.473130811425215</v>
+        <v>1.228577612349964</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>1.486818304384696</v>
+        <v>1.384504972427971</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.267592078068135</v>
+        <v>1.281200389877346</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.353711945215479</v>
+        <v>1.645321557503298</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.494425869555928</v>
+        <v>1.69788925526239</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.470969274670966</v>
+        <v>1.479773594427797</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.671918577302717</v>
+        <v>1.568942887607913</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.337169488130895</v>
+        <v>1.539554926932778</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.862422486713625</v>
+        <v>1.548501768245141</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.525787817927335</v>
+        <v>1.370659550559566</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.778629725865585</v>
+        <v>1.484246041390005</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.782957511550253</v>
+        <v>1.422115805128394</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.456436906295052</v>
+        <v>1.525425107103146</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.349484925607267</v>
+        <v>1.874508105124117</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.436425145743127</v>
+        <v>1.268959439348721</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.738705610982121</v>
+        <v>1.551260403609496</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.471683444787917</v>
+        <v>1.634026369469805</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.655940913027481</v>
+        <v>1.4268793510327</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.504345983406769</v>
+        <v>1.298231326861179</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.599343386183525</v>
+        <v>1.812207152707803</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.199731421229687</v>
+        <v>1.447659382308368</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.321032047212221</v>
+        <v>1.378127455683291</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.485137953213368</v>
+        <v>1.186923708908317</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.692374319557667</v>
+        <v>1.705733419845723</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.613968248197299</v>
+        <v>1.803538446414689</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.605519025002468</v>
+        <v>1.638871251640306</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.473996817779928</v>
+        <v>1.246009010443642</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.496794849546112</v>
+        <v>1.621389911227965</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.552671362313093</v>
+        <v>1.466839407853002</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.702050949137681</v>
+        <v>1.65507097411201</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.23530472476043</v>
+        <v>1.525537454981602</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.696805232467705</v>
+        <v>1.651335757744539</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.348998384482375</v>
+        <v>1.563262947970569</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.34719232946769</v>
+        <v>1.409981711815657</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.303341518992944</v>
+        <v>1.811631736411546</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.49489603840176</v>
+        <v>1.763559217738036</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.540937498301922</v>
+        <v>1.485304512234112</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.353318016285582</v>
+        <v>1.337093715138357</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1.719576319054264</v>
+        <v>1.356899973592353</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.49516584035307</v>
+        <v>1.574759909602306</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.306236766370163</v>
+        <v>1.555269236531958</v>
       </c>
     </row>
   </sheetData>
